--- a/bots/crawl_ch/output/clothes_2022-08-25.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-25.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:18</t>
+          <t>2022-08-25 20:58:47</t>
         </is>
       </c>
     </row>
